--- a/app/parser/data.xlsx
+++ b/app/parser/data.xlsx
@@ -8845,7 +8845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8858,6 +8858,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9173,12 +9176,12 @@
     <col min="4" max="4" style="4" width="30.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="30.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="4" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="30.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="30.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="4" width="30.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -9319,7 +9322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -9346,7 +9349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -9670,7 +9673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -9722,7 +9725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>

--- a/app/parser/data.xlsx
+++ b/app/parser/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13139" uniqueCount="2925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13138" uniqueCount="2925">
   <si>
     <t>Номер позиции</t>
   </si>
@@ -9164,7 +9164,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I1628"/>
+  <dimension ref="A1:I1627"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -53354,19 +53354,6 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1628" customHeight="1" ht="17.25">
-      <c r="A1628" s="3"/>
-      <c r="B1628" s="3"/>
-      <c r="C1628" s="3"/>
-      <c r="D1628" s="3"/>
-      <c r="E1628" s="3"/>
-      <c r="F1628" s="3"/>
-      <c r="G1628" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1628" s="3"/>
-      <c r="I1628" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
